--- a/data/924/NBS/Number of Employed Persons at Year-end in Urban and _Rural Areas.xlsx
+++ b/data/924/NBS/Number of Employed Persons at Year-end in Urban and _Rural Areas.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NBS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,239 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1949</t>
-  </si>
-  <si>
-    <t>Employed Persons(10000 persons)</t>
-  </si>
-  <si>
-    <t>Urban Employed Persons(10000 persons)</t>
-  </si>
-  <si>
-    <t>Rural Employed Persons(10000 persons)</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU4"/>
+  <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,871 +366,1035 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:73">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicators</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:73">
-      <c r="A2" s="1" t="s">
-        <v>73</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Employed Persons(10000 persons)</t>
+        </is>
       </c>
       <c r="B2" t="n">
+        <v>74652</v>
+      </c>
+      <c r="C2" t="n">
         <v>75064</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>75447</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>75782</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>76058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>76245</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>76320</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>76349</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>76301</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>76254</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>76196</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>76105</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>75828</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>75564</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>75321</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>74978</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>74647</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>74264</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>73736</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>73280</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>72797</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>72085</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>71394</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>70637</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>69820</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>68950</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>68065</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>67455</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>66808</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>66152</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>65491</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>64749</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>55329</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>54334</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>52783</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>51282</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>49873</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>48197</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>46436</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>45295</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>43725</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>42361</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>41024</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>40152</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>39377</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>38834</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>38168</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>37369</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>36652</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>35854</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>35620</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>34432</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>33225</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>31915</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>30814</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BE2" t="n">
         <v>29805</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
         <v>28670</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>27736</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>26640</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>25910</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>25590</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BK2" t="n">
         <v>25880</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BL2" t="n">
         <v>26173</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BM2" t="n">
         <v>26600</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>23771</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>23018</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>22328</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>21832</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>21364</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>20729</v>
       </c>
-      <c r="BS2" t="s"/>
-      <c r="BT2" t="s"/>
-      <c r="BU2" t="s"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:73">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Urban Employed Persons(10000 persons)</t>
+        </is>
       </c>
       <c r="B3" t="n">
+        <v>46773</v>
+      </c>
+      <c r="C3" t="n">
         <v>46271</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>45249</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>44292</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>43208</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>42051</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>40916</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>39703</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>38527</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>37287</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>36003</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>34687</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>33322</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>32103</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>30953</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>29630</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>28389</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>27293</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>26230</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>25159</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>24123</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>23151</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>22412</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>21616</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>20781</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>19922</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>19040</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>18653</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>18262</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>17861</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>17465</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>17041</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>14390</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>14267</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>13783</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>13292</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>12808</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>12229</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>11746</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>11428</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>11053</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>10525</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>9999</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>9514</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>9127</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>8692</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>8222</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>7687</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AX3" t="n">
         <v>7388</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>7200</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>6868</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>6312</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>5825</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>5630</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>5446</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BE3" t="n">
         <v>5354</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BF3" t="n">
         <v>5136</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>4828</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>4603</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>4537</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>5336</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>6119</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BL3" t="n">
         <v>5389</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BM3" t="n">
         <v>5300</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>3205</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>2993</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>2802</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>2744</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>2754</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>2486</v>
       </c>
-      <c r="BS3" t="s"/>
-      <c r="BT3" t="s"/>
-      <c r="BU3" t="s"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:73">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Rural Employed Persons(10000 persons)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>28793</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>30198</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>31490</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>32850</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>34194</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>35404</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>36646</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>37774</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>38967</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>40193</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>41418</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>42506</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>43461</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>44368</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>45348</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>46258</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>46971</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>47506</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>48121</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>48674</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>48934</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>48982</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>49021</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>49039</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>49028</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>49025</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>48802</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>48546</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>48291</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>48026</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>47708</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>40939</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>40067</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>39000</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>37990</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>37065</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>35968</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>34690</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>33867</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>32672</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>31836</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>31025</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>30638</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>30250</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>30142</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>29946</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>29682</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>29264</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>28654</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>28752</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>28120</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>27400</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>26285</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>25368</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BE4" t="n">
         <v>24451</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>23534</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>22908</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>22037</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
         <v>21373</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>20254</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BK4" t="n">
         <v>19761</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BL4" t="n">
         <v>20784</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BM4" t="n">
         <v>21300</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>20566</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>20025</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>19526</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>19088</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>18610</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>18243</v>
       </c>
-      <c r="BS4" t="s"/>
-      <c r="BT4" t="s"/>
-      <c r="BU4" t="s"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
